--- a/partII-addition-v3.xlsx
+++ b/partII-addition-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="460" windowWidth="13000" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3568,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A125" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="A183" sqref="A1:A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3614,1439 +3614,1439 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="B167" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>90</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>113</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>362</v>
-      </c>
-      <c r="B184" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>364</v>
-      </c>
-      <c r="B185" t="s">
-        <v>365</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B76">
-    <sortCondition ref="A76"/>
+  <sortState ref="A1:B183">
+    <sortCondition ref="A183"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/partII-addition-v3.xlsx
+++ b/partII-addition-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="11520" yWindow="460" windowWidth="13360" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="656">
   <si>
     <t>cumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3244,6 +3244,2624 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>zhuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.重罪犯</t>
+    <rPh sb="2" eb="3">
+      <t>zhong zui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使起皱；使(头发)卷曲；抵制，束缚</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi zhou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>juan qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaundiced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有偏见的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pian jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有进取心的，爱出风头的，固执己见的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin qu xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>feng tou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wispy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.纤细的；脆弱的；一缕缕的</t>
+    <rPh sb="4" eb="5">
+      <t>xian xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cui ruo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi lü</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敏捷的，灵活的</t>
+    <rPh sb="4" eb="5">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.美味；精美的食品；adj.娇美的；挑剔的</t>
+    <rPh sb="2" eb="3">
+      <t>mei wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing mei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，自尊大的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi zun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequestrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扣押，没收</t>
+    <rPh sb="2" eb="3">
+      <t>kou ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seraphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.如天使般的，美丽的</t>
+    <rPh sb="4" eb="5">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tian shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei li de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaisance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.彬彬有礼；殷勤；柔顺</t>
+    <rPh sb="2" eb="3">
+      <t>bin bin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin qin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>rou shun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敏捷的，活泼的；清新健康的</t>
+    <rPh sb="4" eb="5">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo po</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing xin jian kang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subterfuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诡计，托辞</t>
+    <rPh sb="2" eb="3">
+      <t>gui ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flimflam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snobbish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.势力眼的；假充绅士的</t>
+    <rPh sb="4" eb="5">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.跛行；adj.软弱的，无力的；柔软的</t>
+    <rPh sb="2" eb="3">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execrable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可憎的，讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuperable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以克服的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极好的，极妙的</t>
+    <rPh sb="4" eb="5">
+      <t>ji hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji miao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛刺</t>
+    <rPh sb="2" eb="3">
+      <t>meng ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使着迷；强夺</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao mi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免职；宣誓作证</t>
+    <rPh sb="2" eb="3">
+      <t>mian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.仁慈的；温和的</t>
+    <rPh sb="4" eb="5">
+      <t>ren ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄皱，弄乱</t>
+    <rPh sb="2" eb="3">
+      <t>nong zhou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nong luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enunciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发音；(清楚地)表达</t>
+    <rPh sb="2" eb="3">
+      <t>fa yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing ch</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.烧焦；把……烧成炭</t>
+    <rPh sb="2" eb="3">
+      <t>shao jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shao cheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snappy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生机勃勃的；漂亮的，时髦的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng ji bo bo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi mao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，刻薄的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke bo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.召集，聚集</t>
+    <rPh sb="2" eb="3">
+      <t>zhao ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lustrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有光泽的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挤出，推出，逐出；伸出，突出</t>
+    <rPh sb="2" eb="3">
+      <t>ji chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tu chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malaise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不适，不舒服</t>
+    <rPh sb="2" eb="3">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crafty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culprit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.罪犯</t>
+    <rPh sb="2" eb="3">
+      <t>zui fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oleaginous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.油腻的；圆滑的，满口恭维的</t>
+    <rPh sb="4" eb="5">
+      <t>you ni</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>man kou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.免除；宽恕；汇款</t>
+    <rPh sb="2" eb="3">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuan shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.有抱负者</t>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.涉水；跋涉</t>
+    <rPh sb="2" eb="3">
+      <t>she shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺激，激励；用马刺刺马</t>
+    <rPh sb="2" eb="3">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ma ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ci ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.障碍；跨栏  v.克服(障碍)</t>
+    <rPh sb="2" eb="3">
+      <t>zhang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua lan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.豪华的</t>
+    <rPh sb="4" eb="5">
+      <t>hao hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remonstrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抗议，抱怨</t>
+    <rPh sb="2" eb="3">
+      <t>kang yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensconce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.安置，安坐</t>
+    <rPh sb="2" eb="3">
+      <t>an zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(吃甜食)生腻，吃腻</t>
+    <rPh sb="3" eb="4">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.痛击，严惩</t>
+    <rPh sb="2" eb="3">
+      <t>tong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使凝结，变稠</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ning ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaffe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(社交上令人不快的)失礼，失态</t>
+    <rPh sb="3" eb="4">
+      <t>she jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.疾行，飞奔</t>
+    <rPh sb="2" eb="3">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potboiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.粗制滥造的文艺作品</t>
+    <rPh sb="2" eb="3">
+      <t>cu zhi lan zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen yi zuo p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stranded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.搁浅的，处于困境的</t>
+    <rPh sb="4" eb="5">
+      <t>ge qian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chu yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kun jing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以置信的；寓言的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi zhi xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小工具，小机械</t>
+    <rPh sb="2" eb="3">
+      <t>xiao gong ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odoriferous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dereliction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.遗弃，玩忽职守</t>
+    <rPh sb="2" eb="3">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan hu zhi shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无精打采，衰弱无力</t>
+    <rPh sb="2" eb="3">
+      <t>wu jing da cai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuai ruo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.溃败 </t>
+    <rPh sb="2" eb="3">
+      <t>kui bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depredation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.劫掠，蹂躏</t>
+    <rPh sb="2" eb="3">
+      <t>jie lue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rou lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突袭，偷袭；劫掠，掠夺  n.突袭</t>
+    <rPh sb="2" eb="3">
+      <t>tu xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie lue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecstatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狂喜的，心花怒放的</t>
+    <rPh sb="4" eb="5">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin hua nu fang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redemptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.赎回的，救赎的，挽回的</t>
+    <rPh sb="4" eb="5">
+      <t>shu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wan hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sterilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使不育；杀菌</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sha jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发展，起源；辞源</t>
+    <rPh sb="2" eb="3">
+      <t>fa zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.草率地做；n.流氓；顽皮的家伙</t>
+    <rPh sb="2" eb="3">
+      <t>cao s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.低垂；萎靡</t>
+    <rPh sb="2" eb="3">
+      <t>di chui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overweening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自负的，过于自信的</t>
+    <rPh sb="4" eb="5">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.形成的；影响发展的</t>
+    <rPh sb="4" eb="5">
+      <t>xing chneg</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恶意，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>e yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉，光泽</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.担任主席；负责；指挥</t>
+    <rPh sb="2" eb="3">
+      <t>dan ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu ze</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buxom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.体态丰满的</t>
+    <rPh sb="4" eb="5">
+      <t>ti tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng man</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.獾  v.烦扰，纠缠不清</t>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan rao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu chan bu qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>providential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.幸运的；适时的</t>
+    <rPh sb="4" eb="5">
+      <t>xing yun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.任命(神职)；颁发命令</t>
+    <rPh sb="2" eb="3">
+      <t>ren ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ban bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ming ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preposterous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.荒谬的</t>
+    <rPh sb="4" eb="5">
+      <t>huang miu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double-cross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺骗，出卖</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.得意洋洋的，振奋的</t>
+    <rPh sb="4" eb="5">
+      <t>de yi yang yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhen fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behoove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.理应，有必要</t>
+    <rPh sb="2" eb="3">
+      <t>li ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.说胡话，做傻事；浪费(时间)</t>
+    <rPh sb="2" eb="3">
+      <t>shuo hu hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sha shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lang fei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.争论，论战</t>
+    <rPh sb="2" eb="3">
+      <t>zheng lun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谣言，假新闻</t>
+    <rPh sb="2" eb="3">
+      <t>yao yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia xin wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inveigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.痛骂，猛烈抨击</t>
+    <rPh sb="2" eb="3">
+      <t>tong ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>peng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.回想，回忆起；收回 n.唤回</t>
+    <rPh sb="2" eb="3">
+      <t>hui xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.溺爱；悉心照料</t>
+    <rPh sb="2" eb="3">
+      <t>ni ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi xin zhao liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大幅度下降；暴跌</t>
+    <rPh sb="2" eb="3">
+      <t>da fu di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia jiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao die</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.已过盛年的；过时的</t>
+    <rPh sb="4" eb="5">
+      <t>yi guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng nian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guo shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.征收；强加</t>
+    <rPh sb="2" eb="3">
+      <t>zheng shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.贬低，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>bian di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punctilious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.一丝不苟的</t>
+    <rPh sb="4" eb="5">
+      <t>yi si bu gou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scurry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.急跑，疾行</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smirk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.假笑，得意地笑</t>
+    <rPh sb="2" eb="3">
+      <t>jia xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coruscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪亮</t>
+    <rPh sb="2" eb="3">
+      <t>shan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有霉臭味的，有恶臭的</t>
+    <rPh sb="4" eb="5">
+      <t>you mei wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chou wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>e chou de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 重击，猛击</t>
+    <rPh sb="6" eb="7">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>meng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使湿透</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沙粒；决心，勇气；v.下定决心，咬紧牙关</t>
+    <rPh sb="2" eb="3">
+      <t>sha li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rudder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.船舵；领导者</t>
+    <rPh sb="2" eb="3">
+      <t>chuan duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling dao zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚定的，忠实的</t>
+    <rPh sb="4" eb="5">
+      <t>jian ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉；光泽 v.使有光泽；使有光彩，给……增光；发光</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catharsis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宣泄，净化</t>
+    <rPh sb="2" eb="3">
+      <t>xuan xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finagle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.骗取，骗得</t>
+    <rPh sb="2" eb="3">
+      <t>pian qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pian de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.碎片  v.撕碎</t>
+    <rPh sb="2" eb="3">
+      <t>sui pian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>si sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.授予，赋予</t>
+    <rPh sb="2" eb="3">
+      <t>shou yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saucy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗鲁的；俏皮的；漂亮的</t>
+    <rPh sb="4" eb="5">
+      <t>cu lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiao pi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>befoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄脏，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>nong zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nugatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无价值的，琐碎的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.腕，腕关节</t>
+    <rPh sb="2" eb="3">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan guan jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.令状；书面命令</t>
+    <rPh sb="2" eb="3">
+      <t>ling zhuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frumpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.邋遢的；老式的，过时的</t>
+    <rPh sb="4" eb="5">
+      <t>la ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lao shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guo shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olfactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.嗅觉的</t>
+    <rPh sb="4" eb="5">
+      <t>xiu jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.先知，预言者</t>
+    <rPh sb="2" eb="3">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu yan zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repercussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反响；反应，影响；回声</t>
+    <rPh sb="2" eb="3">
+      <t>fan xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan yhing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.树篱；保护手段；障碍</t>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.全盛时期；adj.首先的；主要的；最好的</t>
+    <rPh sb="2" eb="3">
+      <t>quan sheng shi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.颠簸地移动</t>
+    <rPh sb="2" eb="3">
+      <t>dian bo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灼热的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuo re</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阻止</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.匮乏，贫困</t>
+    <rPh sb="2" eb="3">
+      <t>kui fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin kun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(人们或国家之间的)友好关系</t>
+    <rPh sb="3" eb="4">
+      <t>ren men</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you hao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.暴风雨；骚动</t>
+    <rPh sb="2" eb="3">
+      <t>bao feng yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.细弱的，纤细优美的</t>
+    <rPh sb="4" eb="5">
+      <t>xi ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you mei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halcyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.平静的；愉快的；繁荣的</t>
+    <rPh sb="4" eb="5">
+      <t>ping jng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bliss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂喜，极乐；福气，天赐的福</t>
+    <rPh sb="2" eb="3">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tian ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大声责骂；咆哮</t>
+    <rPh sb="2" eb="3">
+      <t>da sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ze ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deaden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减弱，缓和</t>
+    <rPh sb="2" eb="3">
+      <t>jian ruo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.铁砧</t>
+    <rPh sb="2" eb="3">
+      <t>tie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大包，大捆；灾祸，不幸</t>
+    <rPh sb="2" eb="3">
+      <t>da bao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai huo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excoriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剥皮；严厉批评</t>
+    <rPh sb="2" eb="3">
+      <t>bo pi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pi ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使发出咯咯声；使慌乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge ge sheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huang luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击，痛打</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong dda</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹲伏，弯腰</t>
+    <rPh sb="2" eb="3">
+      <t>dun fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.离题；漂泊</t>
+    <rPh sb="2" eb="3">
+      <t>li ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-groomed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.整齐干净的，衣着入时的</t>
+    <rPh sb="4" eb="5">
+      <t>zheng qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gan jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi zhuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ru shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obnoxious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人极不愉快的，可憎的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji bu yu kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke zeng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiccate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)完全干涸，脱水</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tuo shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.微不足道的食物，琐事</t>
+    <rPh sb="2" eb="3">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.特殊能力；窍门</t>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiao men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，蜷缩</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>quan suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不新鲜的，陈腐的</t>
+    <rPh sb="4" eb="5">
+      <t>bu xin xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chen fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibrancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.生机勃勃，活泼</t>
+    <rPh sb="2" eb="3">
+      <t>sheng ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo bo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.繁荣；幸运</t>
+    <rPh sb="2" eb="3">
+      <t>fna rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.犯错误；闲逛，消磨时间</t>
+    <rPh sb="2" eb="3">
+      <t>fan cuo wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao mo shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.许多，巨额</t>
+    <rPh sb="2" eb="3">
+      <t>xu duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.密切的联系；暧昧的关系</t>
+    <rPh sb="2" eb="3">
+      <t>mi qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai mei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.量过的，精确的；慎重的，恰如其分的</t>
+    <rPh sb="4" eb="5">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing que</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迷乱，恍惚；v.使茫然， 使眩晕</t>
+    <rPh sb="2" eb="3">
+      <t>mi luan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjugate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.征服，镇压</t>
+    <rPh sb="2" eb="3">
+      <t>zheng fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3568,10 +6186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="A183" sqref="A1:A183"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A309" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5044,9 +7662,1377 @@
         <v>67</v>
       </c>
     </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>420</v>
+      </c>
+      <c r="B185" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>377</v>
+      </c>
+      <c r="B186" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>599</v>
+      </c>
+      <c r="B187" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>613</v>
+      </c>
+      <c r="B188" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>437</v>
+      </c>
+      <c r="B189" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>505</v>
+      </c>
+      <c r="B190" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>615</v>
+      </c>
+      <c r="B191" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>571</v>
+      </c>
+      <c r="B192" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>517</v>
+      </c>
+      <c r="B193" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>607</v>
+      </c>
+      <c r="B194" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>523</v>
+      </c>
+      <c r="B197" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>561</v>
+      </c>
+      <c r="B198" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>416</v>
+      </c>
+      <c r="B199" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>410</v>
+      </c>
+      <c r="B200" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>451</v>
+      </c>
+      <c r="B201" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>529</v>
+      </c>
+      <c r="B202" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>387</v>
+      </c>
+      <c r="B203" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>381</v>
+      </c>
+      <c r="B204" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>545</v>
+      </c>
+      <c r="B205" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>637</v>
+      </c>
+      <c r="B206" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>430</v>
+      </c>
+      <c r="B207" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>158</v>
+      </c>
+      <c r="B208" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>86</v>
+      </c>
+      <c r="B209" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>368</v>
+      </c>
+      <c r="B210" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>623</v>
+      </c>
+      <c r="B211" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>455</v>
+      </c>
+      <c r="B213" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>379</v>
+      </c>
+      <c r="B214" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>266</v>
+      </c>
+      <c r="B215" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>611</v>
+      </c>
+      <c r="B216" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>595</v>
+      </c>
+      <c r="B217" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>408</v>
+      </c>
+      <c r="B218" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>477</v>
+      </c>
+      <c r="B219" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>471</v>
+      </c>
+      <c r="B220" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>487</v>
+      </c>
+      <c r="B221" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>631</v>
+      </c>
+      <c r="B222" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>537</v>
+      </c>
+      <c r="B223" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>625</v>
+      </c>
+      <c r="B224" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>513</v>
+      </c>
+      <c r="B225" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>551</v>
+      </c>
+      <c r="B226" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>491</v>
+      </c>
+      <c r="B227" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>481</v>
+      </c>
+      <c r="B228" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>515</v>
+      </c>
+      <c r="B230" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>449</v>
+      </c>
+      <c r="B231" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>414</v>
+      </c>
+      <c r="B232" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>617</v>
+      </c>
+      <c r="B233" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>398</v>
+      </c>
+      <c r="B234" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>426</v>
+      </c>
+      <c r="B236" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>466</v>
+      </c>
+      <c r="B237" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>366</v>
+      </c>
+      <c r="B238" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>563</v>
+      </c>
+      <c r="B239" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>393</v>
+      </c>
+      <c r="B240" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>519</v>
+      </c>
+      <c r="B241" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>495</v>
+      </c>
+      <c r="B243" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>579</v>
+      </c>
+      <c r="B244" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>497</v>
+      </c>
+      <c r="B245" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>547</v>
+      </c>
+      <c r="B246" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>468</v>
+      </c>
+      <c r="B247" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>457</v>
+      </c>
+      <c r="B248" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>645</v>
+      </c>
+      <c r="B250" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>603</v>
+      </c>
+      <c r="B251" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>553</v>
+      </c>
+      <c r="B252" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>605</v>
+      </c>
+      <c r="B253" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>587</v>
+      </c>
+      <c r="B254" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>292</v>
+      </c>
+      <c r="B255" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>443</v>
+      </c>
+      <c r="B256" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>535</v>
+      </c>
+      <c r="B257" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>400</v>
+      </c>
+      <c r="B258" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>104</v>
+      </c>
+      <c r="B259" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>404</v>
+      </c>
+      <c r="B261" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>371</v>
+      </c>
+      <c r="B262" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>591</v>
+      </c>
+      <c r="B263" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>635</v>
+      </c>
+      <c r="B264" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>473</v>
+      </c>
+      <c r="B265" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>649</v>
+      </c>
+      <c r="B266" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>396</v>
+      </c>
+      <c r="B267" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>559</v>
+      </c>
+      <c r="B268" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>424</v>
+      </c>
+      <c r="B269" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>428</v>
+      </c>
+      <c r="B270" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>498</v>
+      </c>
+      <c r="B271" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>651</v>
+      </c>
+      <c r="B272" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>422</v>
+      </c>
+      <c r="B273" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>402</v>
+      </c>
+      <c r="B274" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>573</v>
+      </c>
+      <c r="B275" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>629</v>
+      </c>
+      <c r="B276" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>465</v>
+      </c>
+      <c r="B277" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>470</v>
+      </c>
+      <c r="B278" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>433</v>
+      </c>
+      <c r="B279" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>581</v>
+      </c>
+      <c r="B280" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>509</v>
+      </c>
+      <c r="B281" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>493</v>
+      </c>
+      <c r="B282" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>533</v>
+      </c>
+      <c r="B283" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>316</v>
+      </c>
+      <c r="B284" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>445</v>
+      </c>
+      <c r="B285" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>521</v>
+      </c>
+      <c r="B286" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>461</v>
+      </c>
+      <c r="B287" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>511</v>
+      </c>
+      <c r="B288" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>501</v>
+      </c>
+      <c r="B289" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>589</v>
+      </c>
+      <c r="B290" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>597</v>
+      </c>
+      <c r="B291" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>324</v>
+      </c>
+      <c r="B292" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>643</v>
+      </c>
+      <c r="B294" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>507</v>
+      </c>
+      <c r="B295" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>539</v>
+      </c>
+      <c r="B296" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>373</v>
+      </c>
+      <c r="B297" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>609</v>
+      </c>
+      <c r="B298" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>619</v>
+      </c>
+      <c r="B299" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>406</v>
+      </c>
+      <c r="B300" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>527</v>
+      </c>
+      <c r="B301" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>483</v>
+      </c>
+      <c r="B302" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>435</v>
+      </c>
+      <c r="B303" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>447</v>
+      </c>
+      <c r="B304" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>585</v>
+      </c>
+      <c r="B305" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>475</v>
+      </c>
+      <c r="B306" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>555</v>
+      </c>
+      <c r="B307" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>412</v>
+      </c>
+      <c r="B308" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>569</v>
+      </c>
+      <c r="B309" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>647</v>
+      </c>
+      <c r="B310" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>489</v>
+      </c>
+      <c r="B311" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>593</v>
+      </c>
+      <c r="B312" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>459</v>
+      </c>
+      <c r="B313" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>541</v>
+      </c>
+      <c r="B314" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>383</v>
+      </c>
+      <c r="B315" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>385</v>
+      </c>
+      <c r="B316" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>222</v>
+      </c>
+      <c r="B317" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>228</v>
+      </c>
+      <c r="B318" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>346</v>
+      </c>
+      <c r="B319" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>348</v>
+      </c>
+      <c r="B320" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>531</v>
+      </c>
+      <c r="B321" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>234</v>
+      </c>
+      <c r="B322" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>543</v>
+      </c>
+      <c r="B323" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>418</v>
+      </c>
+      <c r="B324" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>238</v>
+      </c>
+      <c r="B325" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>352</v>
+      </c>
+      <c r="B326" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>40</v>
+      </c>
+      <c r="B327" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>394</v>
+      </c>
+      <c r="B328" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>621</v>
+      </c>
+      <c r="B329" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>36</v>
+      </c>
+      <c r="B330" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>441</v>
+      </c>
+      <c r="B331" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>639</v>
+      </c>
+      <c r="B332" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>557</v>
+      </c>
+      <c r="B333" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>485</v>
+      </c>
+      <c r="B334" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>463</v>
+      </c>
+      <c r="B335" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>654</v>
+      </c>
+      <c r="B336" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>391</v>
+      </c>
+      <c r="B337" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>565</v>
+      </c>
+      <c r="B338" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>601</v>
+      </c>
+      <c r="B339" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>360</v>
+      </c>
+      <c r="B340" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>633</v>
+      </c>
+      <c r="B341" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>453</v>
+      </c>
+      <c r="B342" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>567</v>
+      </c>
+      <c r="B343" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>641</v>
+      </c>
+      <c r="B344" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>370</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>439</v>
+      </c>
+      <c r="B346" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>248</v>
+      </c>
+      <c r="B347" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>549</v>
+      </c>
+      <c r="B348" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>627</v>
+      </c>
+      <c r="B350" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>112</v>
+      </c>
+      <c r="B351" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>375</v>
+      </c>
+      <c r="B352" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>250</v>
+      </c>
+      <c r="B353" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>575</v>
+      </c>
+      <c r="B354" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>577</v>
+      </c>
+      <c r="B355" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:B183">
-    <sortCondition ref="A183"/>
+  <sortState ref="A185:B355">
+    <sortCondition ref="A355"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/partII-addition-v3.xlsx
+++ b/partII-addition-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="460" windowWidth="13360" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="804">
   <si>
     <t>cumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5862,6 +5862,1285 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>zhen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.派遣；迅速处理；匆匆吃完；n.迅速</t>
+    <rPh sb="2" eb="3">
+      <t>pai qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cong cong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chi wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsolete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.废弃的；过时的</t>
+    <rPh sb="4" eb="5">
+      <t>fei qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.钝的；直率的 v.使迟钝</t>
+    <rPh sb="4" eb="5">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi shuai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chi dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.猫科的，猫的</t>
+    <rPh sb="4" eb="5">
+      <t>mao ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anneal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使(金属、玻璃等)退火；使加强，使变硬</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bo li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tui huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jia qiang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bian ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(船)倾斜；使倾斜</t>
+    <rPh sb="3" eb="4">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing xie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disparity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不同，差异</t>
+    <rPh sb="2" eb="3">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.被动的，缺乏活力的</t>
+    <rPh sb="4" eb="5">
+      <t>bei dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protuberant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.突出的，隆起的</t>
+    <rPh sb="4" eb="5">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>long qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doleful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲哀的，忧郁的</t>
+    <rPh sb="4" eb="5">
+      <t>bei ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使多样化，使色彩斑斓</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo yang hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>se cai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obeisance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.鞠躬，敬礼</t>
+    <rPh sb="2" eb="3">
+      <t>ju gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peremptory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不容反抗的；专横的</t>
+    <rPh sb="4" eb="5">
+      <t>bu rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.附属的，次要的</t>
+    <rPh sb="4" eb="5">
+      <t>fu shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奉献，使神圣</t>
+    <rPh sb="2" eb="3">
+      <t>feng cxian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.推挤，猛推</t>
+    <rPh sb="2" eb="3">
+      <t>tui ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.重击，锤击</t>
+    <rPh sb="2" eb="3">
+      <t>zhong ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chui ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulpit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讲道坛</t>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.出生的，诞生时的</t>
+    <rPh sb="4" eb="5">
+      <t>chu sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan sheng shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.责任；债务</t>
+    <rPh sb="2" eb="3">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.胡说   n.糊涂话</t>
+    <rPh sb="2" eb="3">
+      <t>hu shuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hu tu hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撤回(声明)，放弃(信仰)</t>
+    <rPh sb="2" eb="3">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.徽章</t>
+    <rPh sb="2" eb="3">
+      <t>hui zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刺激性；兴趣，热心</t>
+    <rPh sb="2" eb="3">
+      <t>ci ji xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing qu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>re xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dishevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使蓬乱，使(头发)凌乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>peng luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ling luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.固执的；难以改变的</t>
+    <rPh sb="4" eb="5">
+      <t>gu zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan yi gai bian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ornery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.顽固的，爱争吵的</t>
+    <rPh sb="4" eb="5">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偷窃</t>
+    <rPh sb="2" eb="3">
+      <t>tou qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loutish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗鲁的</t>
+    <rPh sb="4" eb="5">
+      <t>cu lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flighty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻浮的；反复无常的</t>
+    <rPh sb="4" eb="5">
+      <t>qing fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan fu wu chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.生气的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惊叫，呼喊</t>
+    <rPh sb="2" eb="3">
+      <t>jing hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hu han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.倒退，逆流</t>
+    <rPh sb="2" eb="3">
+      <t>dao tui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ni liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.注意，留意；提及</t>
+    <rPh sb="2" eb="3">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inveigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.视线模糊的，朦胧的；精疲力尽的</t>
+    <rPh sb="4" eb="5">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mo hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>meng long</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jing pi li jin de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.切口；切割</t>
+    <rPh sb="2" eb="3">
+      <t>qie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qie ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pillage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抢劫，掠夺  v.抢夺</t>
+    <rPh sb="2" eb="3">
+      <t>qiang jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qiang duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adherent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拥护者，信徒</t>
+    <rPh sb="2" eb="3">
+      <t>yong hu zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)倾斜  n.倾斜，斜坡</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing xie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing xie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xie po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldbrick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逃避责任，偷懒</t>
+    <rPh sb="2" eb="3">
+      <t>tao bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bombast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高调，夸大之词</t>
+    <rPh sb="2" eb="3">
+      <t>gao diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kau da</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排出；开除</t>
+    <rPh sb="2" eb="3">
+      <t>pai chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stupor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.昏迷，恍惚</t>
+    <rPh sb="2" eb="3">
+      <t>hun mi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crabbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brackish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.微咸的；难吃的</t>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.亲属</t>
+    <rPh sb="2" eb="3">
+      <t>qin shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disengage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.脱离，解开</t>
+    <rPh sb="2" eb="3">
+      <t>tuo li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.熟练的；圆滑的；光滑的</t>
+    <rPh sb="4" eb="5">
+      <t>shu lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guang hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.狼吞虎咽</t>
+    <rPh sb="2" eb="3">
+      <t>lang tun hu yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastoral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排水；喝光</t>
+    <rPh sb="2" eb="3">
+      <t>pai shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peachy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.极好的，漂亮的</t>
+    <rPh sb="4" eb="5">
+      <t>ji hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impuissance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无力，虚弱</t>
+    <rPh sb="2" eb="3">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ransom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赎金；赎身  v.赎回</t>
+    <rPh sb="2" eb="3">
+      <t>shu jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu shen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.歪曲；扭曲</t>
+    <rPh sb="2" eb="3">
+      <t>wai qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>niu qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(宗教、政治等的)顽固盲从者；偏执者</t>
+    <rPh sb="3" eb="4">
+      <t>zong jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan gu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mang cong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惹恼，激怒</t>
+    <rPh sb="2" eb="3">
+      <t>re nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(因自尊心受伤而导致的)不悦，愤怒；v.激怒</t>
+    <rPh sb="3" eb="4">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi zun xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou sahng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu yhue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fen nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.厌恶，反感；排斥力</t>
+    <rPh sb="2" eb="3">
+      <t>yan wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai chi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诅咒</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.沉着地走；辛勤工作；n.艰难行进</t>
+    <rPh sb="2" eb="3">
+      <t>chen zhuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin qin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抚摸 n.击，打；一笔，一画</t>
+    <rPh sb="2" eb="3">
+      <t>fu mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.贪心的，贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>tan xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.流浪，漂泊</t>
+    <rPh sb="2" eb="3">
+      <t>liu lang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>piao bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄碎；崩溃</t>
+    <rPh sb="2" eb="3">
+      <t>nong sui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>beng kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.敏捷的，迅速的</t>
+    <rPh sb="4" eb="5">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bondage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奴役，束缚</t>
+    <rPh sb="2" eb="3">
+      <t>nu yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奉献，贡献；提议，建议；n.赠送，献出</t>
+    <rPh sb="2" eb="3">
+      <t>feng xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apostate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.背教者；变节者</t>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6186,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B457"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A309" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A388" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9030,9 +10309,817 @@
         <v>578</v>
       </c>
     </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>685</v>
+      </c>
+      <c r="B357" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>736</v>
+      </c>
+      <c r="B358" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>727</v>
+      </c>
+      <c r="B359" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>667</v>
+      </c>
+      <c r="B360" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>802</v>
+      </c>
+      <c r="B361" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>725</v>
+      </c>
+      <c r="B362" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>705</v>
+      </c>
+      <c r="B363" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>615</v>
+      </c>
+      <c r="B364" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>571</v>
+      </c>
+      <c r="B365" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>774</v>
+      </c>
+      <c r="B366" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>256</v>
+      </c>
+      <c r="B367" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>730</v>
+      </c>
+      <c r="B368" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>661</v>
+      </c>
+      <c r="B369" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>742</v>
+      </c>
+      <c r="B370" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>796</v>
+      </c>
+      <c r="B371" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>751</v>
+      </c>
+      <c r="B372" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>669</v>
+      </c>
+      <c r="B373" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>410</v>
+      </c>
+      <c r="B374" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>529</v>
+      </c>
+      <c r="B375" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>688</v>
+      </c>
+      <c r="B376" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>771</v>
+      </c>
+      <c r="B377" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>545</v>
+      </c>
+      <c r="B378" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>749</v>
+      </c>
+      <c r="B379" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>792</v>
+      </c>
+      <c r="B380" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>687</v>
+      </c>
+      <c r="B381" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>658</v>
+      </c>
+      <c r="B382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>755</v>
+      </c>
+      <c r="B383" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>709</v>
+      </c>
+      <c r="B384" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>671</v>
+      </c>
+      <c r="B385" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>656</v>
+      </c>
+      <c r="B386" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>677</v>
+      </c>
+      <c r="B387" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>762</v>
+      </c>
+      <c r="B388" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>700</v>
+      </c>
+      <c r="B389" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>723</v>
+      </c>
+      <c r="B390" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>744</v>
+      </c>
+      <c r="B391" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>663</v>
+      </c>
+      <c r="B392" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>719</v>
+      </c>
+      <c r="B393" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>740</v>
+      </c>
+      <c r="B394" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>800</v>
+      </c>
+      <c r="B395" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>773</v>
+      </c>
+      <c r="B396" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>788</v>
+      </c>
+      <c r="B397" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>759</v>
+      </c>
+      <c r="B398" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>443</v>
+      </c>
+      <c r="B400" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>767</v>
+      </c>
+      <c r="B401" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>732</v>
+      </c>
+      <c r="B402" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>729</v>
+      </c>
+      <c r="B403" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>30</v>
+      </c>
+      <c r="B404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>753</v>
+      </c>
+      <c r="B405" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>702</v>
+      </c>
+      <c r="B406" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>698</v>
+      </c>
+      <c r="B407" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>801</v>
+      </c>
+      <c r="B408" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>717</v>
+      </c>
+      <c r="B409" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>424</v>
+      </c>
+      <c r="B410" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>782</v>
+      </c>
+      <c r="B411" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>128</v>
+      </c>
+      <c r="B412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>651</v>
+      </c>
+      <c r="B413" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>124</v>
+      </c>
+      <c r="B414" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>696</v>
+      </c>
+      <c r="B415" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>681</v>
+      </c>
+      <c r="B416" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>659</v>
+      </c>
+      <c r="B417" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>509</v>
+      </c>
+      <c r="B418" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>713</v>
+      </c>
+      <c r="B419" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>673</v>
+      </c>
+      <c r="B420" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>761</v>
+      </c>
+      <c r="B421" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>765</v>
+      </c>
+      <c r="B422" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>683</v>
+      </c>
+      <c r="B423" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>715</v>
+      </c>
+      <c r="B424" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>734</v>
+      </c>
+      <c r="B425" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>778</v>
+      </c>
+      <c r="B426" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>784</v>
+      </c>
+      <c r="B427" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>798</v>
+      </c>
+      <c r="B428" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>764</v>
+      </c>
+      <c r="B429" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>675</v>
+      </c>
+      <c r="B430" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>694</v>
+      </c>
+      <c r="B431" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>769</v>
+      </c>
+      <c r="B432" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>619</v>
+      </c>
+      <c r="B433" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>794</v>
+      </c>
+      <c r="B434" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>703</v>
+      </c>
+      <c r="B435" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>780</v>
+      </c>
+      <c r="B436" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>748</v>
+      </c>
+      <c r="B437" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>665</v>
+      </c>
+      <c r="B438" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>776</v>
+      </c>
+      <c r="B439" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>790</v>
+      </c>
+      <c r="B440" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>569</v>
+      </c>
+      <c r="B441" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>385</v>
+      </c>
+      <c r="B442" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>690</v>
+      </c>
+      <c r="B443" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>757</v>
+      </c>
+      <c r="B444" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>234</v>
+      </c>
+      <c r="B445" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>666</v>
+      </c>
+      <c r="B446" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>786</v>
+      </c>
+      <c r="B447" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>711</v>
+      </c>
+      <c r="B448" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>746</v>
+      </c>
+      <c r="B449" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>721</v>
+      </c>
+      <c r="B450" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>692</v>
+      </c>
+      <c r="B451" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>738</v>
+      </c>
+      <c r="B452" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>48</v>
+      </c>
+      <c r="B453" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>679</v>
+      </c>
+      <c r="B454" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>549</v>
+      </c>
+      <c r="B455" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>250</v>
+      </c>
+      <c r="B456" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>707</v>
+      </c>
+      <c r="B457" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A185:B355">
-    <sortCondition ref="A355"/>
+  <sortState ref="A357:B457">
+    <sortCondition ref="A457"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/partII-addition-v3.xlsx
+++ b/partII-addition-v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2001,16 +2001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.光辉，关泽</t>
-    <rPh sb="2" eb="3">
-      <t>guang hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guan ze</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shirk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7141,6 +7131,16 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.光辉，光泽</t>
+    <rPh sb="2" eb="3">
+      <t>guang hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7467,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B457"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A388" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A132" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7527,18 +7527,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
         <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,18 +7551,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
         <v>260</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,10 +7575,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
         <v>262</v>
-      </c>
-      <c r="B13" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,10 +7631,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
         <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,26 +7703,26 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
         <v>266</v>
-      </c>
-      <c r="B29" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
         <v>268</v>
-      </c>
-      <c r="B30" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
         <v>270</v>
-      </c>
-      <c r="B31" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -7751,10 +7751,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
         <v>272</v>
-      </c>
-      <c r="B35" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7775,10 +7775,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" t="s">
         <v>274</v>
-      </c>
-      <c r="B38" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -7823,10 +7823,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" t="s">
         <v>276</v>
-      </c>
-      <c r="B44" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -7863,18 +7863,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
         <v>278</v>
-      </c>
-      <c r="B49" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" t="s">
         <v>280</v>
-      </c>
-      <c r="B50" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -7895,18 +7895,18 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" t="s">
         <v>282</v>
-      </c>
-      <c r="B53" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" t="s">
         <v>284</v>
-      </c>
-      <c r="B54" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -7951,10 +7951,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" t="s">
         <v>286</v>
-      </c>
-      <c r="B60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" t="s">
         <v>288</v>
-      </c>
-      <c r="B66" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -8031,26 +8031,26 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
         <v>290</v>
-      </c>
-      <c r="B70" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
         <v>292</v>
-      </c>
-      <c r="B71" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" t="s">
         <v>294</v>
-      </c>
-      <c r="B72" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -8063,10 +8063,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
         <v>296</v>
-      </c>
-      <c r="B74" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -8087,10 +8087,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" t="s">
         <v>298</v>
-      </c>
-      <c r="B77" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -8103,10 +8103,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" t="s">
         <v>300</v>
-      </c>
-      <c r="B79" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -8135,10 +8135,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" t="s">
         <v>302</v>
-      </c>
-      <c r="B83" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -8151,10 +8151,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" t="s">
         <v>304</v>
-      </c>
-      <c r="B85" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -8167,10 +8167,10 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s">
         <v>306</v>
-      </c>
-      <c r="B87" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -8199,10 +8199,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" t="s">
         <v>308</v>
-      </c>
-      <c r="B91" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -8223,10 +8223,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" t="s">
         <v>310</v>
-      </c>
-      <c r="B94" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -8287,10 +8287,10 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
         <v>312</v>
-      </c>
-      <c r="B102" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -8311,10 +8311,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>313</v>
+      </c>
+      <c r="B105" t="s">
         <v>314</v>
-      </c>
-      <c r="B105" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -8327,10 +8327,10 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" t="s">
         <v>316</v>
-      </c>
-      <c r="B107" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -8351,26 +8351,26 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" t="s">
         <v>318</v>
-      </c>
-      <c r="B110" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" t="s">
         <v>320</v>
-      </c>
-      <c r="B111" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" t="s">
         <v>322</v>
-      </c>
-      <c r="B112" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -8391,10 +8391,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
         <v>324</v>
-      </c>
-      <c r="B115" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -8423,18 +8423,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" t="s">
         <v>326</v>
-      </c>
-      <c r="B119" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" t="s">
         <v>328</v>
-      </c>
-      <c r="B120" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -8447,18 +8447,18 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>329</v>
+      </c>
+      <c r="B122" t="s">
         <v>330</v>
-      </c>
-      <c r="B122" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
         <v>332</v>
-      </c>
-      <c r="B123" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -8527,10 +8527,10 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" t="s">
         <v>334</v>
-      </c>
-      <c r="B132" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -8543,26 +8543,26 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" t="s">
         <v>336</v>
-      </c>
-      <c r="B134" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" t="s">
         <v>338</v>
-      </c>
-      <c r="B135" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" t="s">
         <v>340</v>
-      </c>
-      <c r="B136" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -8570,15 +8570,15 @@
         <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" t="s">
         <v>224</v>
-      </c>
-      <c r="B138" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -8591,26 +8591,26 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" t="s">
         <v>226</v>
-      </c>
-      <c r="B140" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141" t="s">
         <v>342</v>
-      </c>
-      <c r="B141" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" t="s">
         <v>344</v>
-      </c>
-      <c r="B142" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -8623,66 +8623,66 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>227</v>
+      </c>
+      <c r="B144" t="s">
         <v>228</v>
-      </c>
-      <c r="B144" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" t="s">
         <v>230</v>
-      </c>
-      <c r="B145" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" t="s">
         <v>346</v>
-      </c>
-      <c r="B146" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" t="s">
         <v>348</v>
-      </c>
-      <c r="B147" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148" t="s">
         <v>350</v>
-      </c>
-      <c r="B148" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" t="s">
         <v>232</v>
-      </c>
-      <c r="B149" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" t="s">
         <v>234</v>
-      </c>
-      <c r="B150" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" t="s">
         <v>236</v>
-      </c>
-      <c r="B151" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -8695,18 +8695,18 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" t="s">
         <v>238</v>
-      </c>
-      <c r="B153" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" t="s">
         <v>352</v>
-      </c>
-      <c r="B154" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -8743,10 +8743,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" t="s">
         <v>354</v>
-      </c>
-      <c r="B159" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -8759,18 +8759,18 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" t="s">
         <v>240</v>
-      </c>
-      <c r="B161" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>355</v>
+      </c>
+      <c r="B162" t="s">
         <v>356</v>
-      </c>
-      <c r="B162" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -8783,10 +8783,10 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" t="s">
         <v>358</v>
-      </c>
-      <c r="B164" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -8807,10 +8807,10 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" t="s">
         <v>360</v>
-      </c>
-      <c r="B167" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -8823,10 +8823,10 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" t="s">
         <v>242</v>
-      </c>
-      <c r="B169" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -8839,18 +8839,18 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" t="s">
         <v>244</v>
-      </c>
-      <c r="B171" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>245</v>
+      </c>
+      <c r="B172" t="s">
         <v>246</v>
-      </c>
-      <c r="B172" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -8863,10 +8863,10 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" t="s">
         <v>248</v>
-      </c>
-      <c r="B174" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -8887,10 +8887,10 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177" t="s">
         <v>362</v>
-      </c>
-      <c r="B177" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -8903,10 +8903,10 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>249</v>
+      </c>
+      <c r="B179" t="s">
         <v>250</v>
-      </c>
-      <c r="B179" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -8919,18 +8919,18 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
         <v>364</v>
-      </c>
-      <c r="B181" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" t="s">
         <v>252</v>
-      </c>
-      <c r="B182" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -8943,183 +8943,183 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>419</v>
+      </c>
+      <c r="B185" t="s">
         <v>420</v>
-      </c>
-      <c r="B185" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>376</v>
+      </c>
+      <c r="B186" t="s">
         <v>377</v>
-      </c>
-      <c r="B186" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>598</v>
+      </c>
+      <c r="B187" t="s">
         <v>599</v>
-      </c>
-      <c r="B187" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>612</v>
+      </c>
+      <c r="B188" t="s">
         <v>613</v>
-      </c>
-      <c r="B188" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>436</v>
+      </c>
+      <c r="B189" t="s">
         <v>437</v>
-      </c>
-      <c r="B189" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>504</v>
+      </c>
+      <c r="B190" t="s">
         <v>505</v>
-      </c>
-      <c r="B190" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>614</v>
+      </c>
+      <c r="B191" t="s">
         <v>615</v>
-      </c>
-      <c r="B191" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>570</v>
+      </c>
+      <c r="B192" t="s">
         <v>571</v>
-      </c>
-      <c r="B192" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>516</v>
+      </c>
+      <c r="B193" t="s">
         <v>517</v>
-      </c>
-      <c r="B193" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>606</v>
+      </c>
+      <c r="B194" t="s">
         <v>607</v>
-      </c>
-      <c r="B194" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
         <v>389</v>
-      </c>
-      <c r="B195" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>502</v>
+      </c>
+      <c r="B196" t="s">
         <v>503</v>
-      </c>
-      <c r="B196" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>522</v>
+      </c>
+      <c r="B197" t="s">
         <v>523</v>
-      </c>
-      <c r="B197" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>560</v>
+      </c>
+      <c r="B198" t="s">
         <v>561</v>
-      </c>
-      <c r="B198" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>415</v>
+      </c>
+      <c r="B199" t="s">
         <v>416</v>
-      </c>
-      <c r="B199" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s">
         <v>410</v>
-      </c>
-      <c r="B200" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" t="s">
         <v>451</v>
-      </c>
-      <c r="B201" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>528</v>
+      </c>
+      <c r="B202" t="s">
         <v>529</v>
-      </c>
-      <c r="B202" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>386</v>
+      </c>
+      <c r="B203" t="s">
         <v>387</v>
-      </c>
-      <c r="B203" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>380</v>
+      </c>
+      <c r="B204" t="s">
         <v>381</v>
-      </c>
-      <c r="B204" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>544</v>
+      </c>
+      <c r="B205" t="s">
         <v>545</v>
-      </c>
-      <c r="B205" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>636</v>
+      </c>
+      <c r="B206" t="s">
         <v>637</v>
-      </c>
-      <c r="B206" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B207" t="s">
         <v>141</v>
@@ -9143,202 +9143,202 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>367</v>
+      </c>
+      <c r="B210" t="s">
         <v>368</v>
-      </c>
-      <c r="B210" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>622</v>
+      </c>
+      <c r="B211" t="s">
         <v>623</v>
-      </c>
-      <c r="B211" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" t="s">
         <v>431</v>
-      </c>
-      <c r="B212" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>454</v>
+      </c>
+      <c r="B213" t="s">
         <v>455</v>
-      </c>
-      <c r="B213" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>378</v>
+      </c>
+      <c r="B214" t="s">
         <v>379</v>
-      </c>
-      <c r="B214" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B215" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>610</v>
+      </c>
+      <c r="B216" t="s">
         <v>611</v>
-      </c>
-      <c r="B216" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>594</v>
+      </c>
+      <c r="B217" t="s">
         <v>595</v>
-      </c>
-      <c r="B217" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>407</v>
+      </c>
+      <c r="B218" t="s">
         <v>408</v>
-      </c>
-      <c r="B218" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>476</v>
+      </c>
+      <c r="B219" t="s">
         <v>477</v>
-      </c>
-      <c r="B219" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>470</v>
+      </c>
+      <c r="B220" t="s">
         <v>471</v>
-      </c>
-      <c r="B220" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>486</v>
+      </c>
+      <c r="B221" t="s">
         <v>487</v>
-      </c>
-      <c r="B221" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>630</v>
+      </c>
+      <c r="B222" t="s">
         <v>631</v>
-      </c>
-      <c r="B222" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>536</v>
+      </c>
+      <c r="B223" t="s">
         <v>537</v>
-      </c>
-      <c r="B223" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>624</v>
+      </c>
+      <c r="B224" t="s">
         <v>625</v>
-      </c>
-      <c r="B224" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>512</v>
+      </c>
+      <c r="B225" t="s">
         <v>513</v>
-      </c>
-      <c r="B225" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>550</v>
+      </c>
+      <c r="B226" t="s">
         <v>551</v>
-      </c>
-      <c r="B226" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>490</v>
+      </c>
+      <c r="B227" t="s">
         <v>491</v>
-      </c>
-      <c r="B227" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>480</v>
+      </c>
+      <c r="B228" t="s">
         <v>481</v>
-      </c>
-      <c r="B228" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229" t="s">
         <v>274</v>
-      </c>
-      <c r="B229" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>514</v>
+      </c>
+      <c r="B230" t="s">
         <v>515</v>
-      </c>
-      <c r="B230" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>448</v>
+      </c>
+      <c r="B231" t="s">
         <v>449</v>
-      </c>
-      <c r="B231" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" t="s">
         <v>414</v>
-      </c>
-      <c r="B232" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>616</v>
+      </c>
+      <c r="B233" t="s">
         <v>617</v>
-      </c>
-      <c r="B233" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>397</v>
+      </c>
+      <c r="B234" t="s">
         <v>398</v>
-      </c>
-      <c r="B234" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -9351,39 +9351,39 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>425</v>
+      </c>
+      <c r="B236" t="s">
         <v>426</v>
-      </c>
-      <c r="B236" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>465</v>
+      </c>
+      <c r="B237" t="s">
         <v>466</v>
-      </c>
-      <c r="B237" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" t="s">
         <v>366</v>
-      </c>
-      <c r="B238" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>562</v>
+      </c>
+      <c r="B239" t="s">
         <v>563</v>
-      </c>
-      <c r="B239" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B240" t="s">
         <v>73</v>
@@ -9391,39 +9391,39 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>518</v>
+      </c>
+      <c r="B241" t="s">
         <v>519</v>
-      </c>
-      <c r="B241" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
         <v>479</v>
-      </c>
-      <c r="B242" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" t="s">
         <v>495</v>
-      </c>
-      <c r="B243" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>578</v>
+      </c>
+      <c r="B244" t="s">
         <v>579</v>
-      </c>
-      <c r="B244" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B245" t="s">
         <v>171</v>
@@ -9431,26 +9431,26 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>546</v>
+      </c>
+      <c r="B246" t="s">
         <v>547</v>
-      </c>
-      <c r="B246" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>467</v>
+      </c>
+      <c r="B247" t="s">
         <v>468</v>
-      </c>
-      <c r="B247" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>456</v>
+      </c>
+      <c r="B248" t="s">
         <v>457</v>
-      </c>
-      <c r="B248" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -9463,74 +9463,74 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>644</v>
+      </c>
+      <c r="B250" t="s">
         <v>645</v>
-      </c>
-      <c r="B250" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>602</v>
+      </c>
+      <c r="B251" t="s">
         <v>603</v>
-      </c>
-      <c r="B251" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>552</v>
+      </c>
+      <c r="B252" t="s">
         <v>553</v>
-      </c>
-      <c r="B252" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>604</v>
+      </c>
+      <c r="B253" t="s">
         <v>605</v>
-      </c>
-      <c r="B253" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>586</v>
+      </c>
+      <c r="B254" t="s">
         <v>587</v>
-      </c>
-      <c r="B254" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" t="s">
         <v>292</v>
-      </c>
-      <c r="B255" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>442</v>
+      </c>
+      <c r="B256" t="s">
         <v>443</v>
-      </c>
-      <c r="B256" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>534</v>
+      </c>
+      <c r="B257" t="s">
         <v>535</v>
-      </c>
-      <c r="B257" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>399</v>
+      </c>
+      <c r="B258" t="s">
         <v>400</v>
-      </c>
-      <c r="B258" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -9543,143 +9543,143 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>524</v>
+      </c>
+      <c r="B260" t="s">
         <v>525</v>
-      </c>
-      <c r="B260" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>403</v>
+      </c>
+      <c r="B261" t="s">
         <v>404</v>
-      </c>
-      <c r="B261" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>370</v>
+      </c>
+      <c r="B262" t="s">
         <v>371</v>
-      </c>
-      <c r="B262" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>590</v>
+      </c>
+      <c r="B263" t="s">
         <v>591</v>
-      </c>
-      <c r="B263" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>634</v>
+      </c>
+      <c r="B264" t="s">
         <v>635</v>
-      </c>
-      <c r="B264" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>472</v>
+      </c>
+      <c r="B265" t="s">
         <v>473</v>
-      </c>
-      <c r="B265" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>648</v>
+      </c>
+      <c r="B266" t="s">
         <v>649</v>
-      </c>
-      <c r="B266" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>395</v>
+      </c>
+      <c r="B267" t="s">
         <v>396</v>
-      </c>
-      <c r="B267" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>558</v>
+      </c>
+      <c r="B268" t="s">
         <v>559</v>
-      </c>
-      <c r="B268" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>423</v>
+      </c>
+      <c r="B269" t="s">
         <v>424</v>
-      </c>
-      <c r="B269" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>427</v>
+      </c>
+      <c r="B270" t="s">
         <v>428</v>
-      </c>
-      <c r="B270" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>497</v>
+      </c>
+      <c r="B271" t="s">
         <v>498</v>
-      </c>
-      <c r="B271" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>650</v>
+      </c>
+      <c r="B272" t="s">
         <v>651</v>
-      </c>
-      <c r="B272" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>421</v>
+      </c>
+      <c r="B273" t="s">
         <v>422</v>
-      </c>
-      <c r="B273" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>401</v>
+      </c>
+      <c r="B274" t="s">
         <v>402</v>
-      </c>
-      <c r="B274" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>572</v>
+      </c>
+      <c r="B275" t="s">
         <v>573</v>
-      </c>
-      <c r="B275" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>628</v>
+      </c>
+      <c r="B276" t="s">
         <v>629</v>
-      </c>
-      <c r="B276" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B277" t="s">
         <v>193</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B278" t="s">
         <v>195</v>
@@ -9695,306 +9695,306 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>432</v>
+      </c>
+      <c r="B279" t="s">
         <v>433</v>
-      </c>
-      <c r="B279" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>580</v>
+      </c>
+      <c r="B280" t="s">
         <v>581</v>
-      </c>
-      <c r="B280" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>508</v>
+      </c>
+      <c r="B281" t="s">
         <v>509</v>
-      </c>
-      <c r="B281" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>492</v>
+      </c>
+      <c r="B282" t="s">
         <v>493</v>
-      </c>
-      <c r="B282" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>532</v>
+      </c>
+      <c r="B283" t="s">
         <v>533</v>
-      </c>
-      <c r="B283" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>315</v>
+      </c>
+      <c r="B284" t="s">
         <v>316</v>
-      </c>
-      <c r="B284" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>444</v>
+      </c>
+      <c r="B285" t="s">
         <v>445</v>
-      </c>
-      <c r="B285" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>520</v>
+      </c>
+      <c r="B286" t="s">
         <v>521</v>
-      </c>
-      <c r="B286" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>460</v>
+      </c>
+      <c r="B287" t="s">
         <v>461</v>
-      </c>
-      <c r="B287" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>510</v>
+      </c>
+      <c r="B288" t="s">
         <v>511</v>
-      </c>
-      <c r="B288" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>500</v>
+      </c>
+      <c r="B289" t="s">
         <v>501</v>
-      </c>
-      <c r="B289" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>588</v>
+      </c>
+      <c r="B290" t="s">
         <v>589</v>
-      </c>
-      <c r="B290" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>596</v>
+      </c>
+      <c r="B291" t="s">
         <v>597</v>
-      </c>
-      <c r="B291" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>323</v>
+      </c>
+      <c r="B292" t="s">
         <v>324</v>
-      </c>
-      <c r="B292" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>582</v>
+      </c>
+      <c r="B293" t="s">
         <v>583</v>
-      </c>
-      <c r="B293" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>642</v>
+      </c>
+      <c r="B294" t="s">
         <v>643</v>
-      </c>
-      <c r="B294" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>506</v>
+      </c>
+      <c r="B295" t="s">
         <v>507</v>
-      </c>
-      <c r="B295" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>538</v>
+      </c>
+      <c r="B296" t="s">
         <v>539</v>
-      </c>
-      <c r="B296" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>372</v>
+      </c>
+      <c r="B297" t="s">
         <v>373</v>
-      </c>
-      <c r="B297" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>608</v>
+      </c>
+      <c r="B298" t="s">
         <v>609</v>
-      </c>
-      <c r="B298" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>618</v>
+      </c>
+      <c r="B299" t="s">
         <v>619</v>
-      </c>
-      <c r="B299" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>405</v>
+      </c>
+      <c r="B300" t="s">
         <v>406</v>
-      </c>
-      <c r="B300" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>526</v>
+      </c>
+      <c r="B301" t="s">
         <v>527</v>
-      </c>
-      <c r="B301" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>482</v>
+      </c>
+      <c r="B302" t="s">
         <v>483</v>
-      </c>
-      <c r="B302" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>434</v>
+      </c>
+      <c r="B303" t="s">
         <v>435</v>
-      </c>
-      <c r="B303" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>446</v>
+      </c>
+      <c r="B304" t="s">
         <v>447</v>
-      </c>
-      <c r="B304" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>584</v>
+      </c>
+      <c r="B305" t="s">
         <v>585</v>
-      </c>
-      <c r="B305" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>474</v>
+      </c>
+      <c r="B306" t="s">
         <v>475</v>
-      </c>
-      <c r="B306" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>554</v>
+      </c>
+      <c r="B307" t="s">
         <v>555</v>
-      </c>
-      <c r="B307" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>411</v>
+      </c>
+      <c r="B308" t="s">
         <v>412</v>
-      </c>
-      <c r="B308" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>568</v>
+      </c>
+      <c r="B309" t="s">
         <v>569</v>
-      </c>
-      <c r="B309" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>646</v>
+      </c>
+      <c r="B310" t="s">
         <v>647</v>
-      </c>
-      <c r="B310" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>488</v>
+      </c>
+      <c r="B311" t="s">
         <v>489</v>
-      </c>
-      <c r="B311" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>592</v>
+      </c>
+      <c r="B312" t="s">
         <v>593</v>
-      </c>
-      <c r="B312" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>458</v>
+      </c>
+      <c r="B313" t="s">
         <v>459</v>
-      </c>
-      <c r="B313" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>540</v>
+      </c>
+      <c r="B314" t="s">
         <v>541</v>
-      </c>
-      <c r="B314" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>382</v>
+      </c>
+      <c r="B315" t="s">
         <v>383</v>
-      </c>
-      <c r="B315" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>384</v>
+      </c>
+      <c r="B316" t="s">
         <v>385</v>
-      </c>
-      <c r="B316" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -10002,79 +10002,79 @@
         <v>222</v>
       </c>
       <c r="B317" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>227</v>
+      </c>
+      <c r="B318" t="s">
         <v>228</v>
-      </c>
-      <c r="B318" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>345</v>
+      </c>
+      <c r="B319" t="s">
         <v>346</v>
-      </c>
-      <c r="B319" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>347</v>
+      </c>
+      <c r="B320" t="s">
         <v>348</v>
-      </c>
-      <c r="B320" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>530</v>
+      </c>
+      <c r="B321" t="s">
         <v>531</v>
-      </c>
-      <c r="B321" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>233</v>
+      </c>
+      <c r="B322" t="s">
         <v>234</v>
-      </c>
-      <c r="B322" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>542</v>
+      </c>
+      <c r="B323" t="s">
         <v>543</v>
-      </c>
-      <c r="B323" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>417</v>
+      </c>
+      <c r="B324" t="s">
         <v>418</v>
-      </c>
-      <c r="B324" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>237</v>
+      </c>
+      <c r="B325" t="s">
         <v>238</v>
-      </c>
-      <c r="B325" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>351</v>
+      </c>
+      <c r="B326" t="s">
         <v>352</v>
-      </c>
-      <c r="B326" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -10087,18 +10087,18 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>393</v>
+      </c>
+      <c r="B328" t="s">
         <v>394</v>
-      </c>
-      <c r="B328" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>620</v>
+      </c>
+      <c r="B329" t="s">
         <v>621</v>
-      </c>
-      <c r="B329" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -10111,119 +10111,119 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>440</v>
+      </c>
+      <c r="B331" t="s">
         <v>441</v>
-      </c>
-      <c r="B331" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>638</v>
+      </c>
+      <c r="B332" t="s">
         <v>639</v>
-      </c>
-      <c r="B332" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>556</v>
+      </c>
+      <c r="B333" t="s">
         <v>557</v>
-      </c>
-      <c r="B333" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>484</v>
+      </c>
+      <c r="B334" t="s">
         <v>485</v>
-      </c>
-      <c r="B334" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>462</v>
+      </c>
+      <c r="B335" t="s">
         <v>463</v>
-      </c>
-      <c r="B335" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>653</v>
+      </c>
+      <c r="B336" t="s">
         <v>654</v>
-      </c>
-      <c r="B336" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>390</v>
+      </c>
+      <c r="B337" t="s">
         <v>391</v>
-      </c>
-      <c r="B337" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>564</v>
+      </c>
+      <c r="B338" t="s">
         <v>565</v>
-      </c>
-      <c r="B338" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>600</v>
+      </c>
+      <c r="B339" t="s">
         <v>601</v>
-      </c>
-      <c r="B339" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>359</v>
+      </c>
+      <c r="B340" t="s">
         <v>360</v>
-      </c>
-      <c r="B340" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>632</v>
+      </c>
+      <c r="B341" t="s">
         <v>633</v>
-      </c>
-      <c r="B341" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>452</v>
+      </c>
+      <c r="B342" t="s">
         <v>453</v>
-      </c>
-      <c r="B342" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>566</v>
+      </c>
+      <c r="B343" t="s">
         <v>567</v>
-      </c>
-      <c r="B343" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>640</v>
+      </c>
+      <c r="B344" t="s">
         <v>641</v>
-      </c>
-      <c r="B344" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B345" t="s">
         <v>9</v>
@@ -10231,26 +10231,26 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>438</v>
+      </c>
+      <c r="B346" t="s">
         <v>439</v>
-      </c>
-      <c r="B346" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>247</v>
+      </c>
+      <c r="B347" t="s">
         <v>248</v>
-      </c>
-      <c r="B347" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>548</v>
+      </c>
+      <c r="B348" t="s">
         <v>549</v>
-      </c>
-      <c r="B348" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -10263,10 +10263,10 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>626</v>
+      </c>
+      <c r="B350" t="s">
         <v>627</v>
-      </c>
-      <c r="B350" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -10279,370 +10279,370 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>374</v>
+      </c>
+      <c r="B352" t="s">
         <v>375</v>
-      </c>
-      <c r="B352" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>249</v>
+      </c>
+      <c r="B353" t="s">
         <v>250</v>
-      </c>
-      <c r="B353" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>574</v>
+      </c>
+      <c r="B354" t="s">
         <v>575</v>
-      </c>
-      <c r="B354" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>576</v>
+      </c>
+      <c r="B355" t="s">
         <v>577</v>
-      </c>
-      <c r="B355" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>684</v>
+      </c>
+      <c r="B357" t="s">
         <v>685</v>
-      </c>
-      <c r="B357" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>735</v>
+      </c>
+      <c r="B358" t="s">
         <v>736</v>
-      </c>
-      <c r="B358" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>726</v>
+      </c>
+      <c r="B359" t="s">
         <v>727</v>
-      </c>
-      <c r="B359" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>666</v>
+      </c>
+      <c r="B360" t="s">
         <v>667</v>
-      </c>
-      <c r="B360" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>801</v>
+      </c>
+      <c r="B361" t="s">
         <v>802</v>
-      </c>
-      <c r="B361" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" t="s">
         <v>725</v>
-      </c>
-      <c r="B362" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>704</v>
+      </c>
+      <c r="B363" t="s">
         <v>705</v>
-      </c>
-      <c r="B363" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>614</v>
+      </c>
+      <c r="B364" t="s">
         <v>615</v>
-      </c>
-      <c r="B364" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>570</v>
+      </c>
+      <c r="B365" t="s">
         <v>571</v>
-      </c>
-      <c r="B365" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>773</v>
+      </c>
+      <c r="B366" t="s">
         <v>774</v>
-      </c>
-      <c r="B366" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>255</v>
+      </c>
+      <c r="B367" t="s">
         <v>256</v>
-      </c>
-      <c r="B367" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>729</v>
+      </c>
+      <c r="B368" t="s">
         <v>730</v>
-      </c>
-      <c r="B368" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
+        <v>660</v>
+      </c>
+      <c r="B369" t="s">
         <v>661</v>
-      </c>
-      <c r="B369" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>741</v>
+      </c>
+      <c r="B370" t="s">
         <v>742</v>
-      </c>
-      <c r="B370" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>795</v>
+      </c>
+      <c r="B371" t="s">
         <v>796</v>
-      </c>
-      <c r="B371" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
+        <v>750</v>
+      </c>
+      <c r="B372" t="s">
         <v>751</v>
-      </c>
-      <c r="B372" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
+        <v>668</v>
+      </c>
+      <c r="B373" t="s">
         <v>669</v>
-      </c>
-      <c r="B373" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
+        <v>409</v>
+      </c>
+      <c r="B374" t="s">
         <v>410</v>
-      </c>
-      <c r="B374" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>528</v>
+      </c>
+      <c r="B375" t="s">
         <v>529</v>
-      </c>
-      <c r="B375" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>687</v>
+      </c>
+      <c r="B376" t="s">
         <v>688</v>
-      </c>
-      <c r="B376" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>770</v>
+      </c>
+      <c r="B377" t="s">
         <v>771</v>
-      </c>
-      <c r="B377" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>544</v>
+      </c>
+      <c r="B378" t="s">
         <v>545</v>
-      </c>
-      <c r="B378" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>748</v>
+      </c>
+      <c r="B379" t="s">
         <v>749</v>
-      </c>
-      <c r="B379" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>791</v>
+      </c>
+      <c r="B380" t="s">
         <v>792</v>
-      </c>
-      <c r="B380" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B381" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
+        <v>754</v>
+      </c>
+      <c r="B383" t="s">
         <v>755</v>
-      </c>
-      <c r="B383" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>708</v>
+      </c>
+      <c r="B384" t="s">
         <v>709</v>
-      </c>
-      <c r="B384" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
+        <v>670</v>
+      </c>
+      <c r="B385" t="s">
         <v>671</v>
-      </c>
-      <c r="B385" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>655</v>
+      </c>
+      <c r="B386" t="s">
         <v>656</v>
-      </c>
-      <c r="B386" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
+        <v>676</v>
+      </c>
+      <c r="B387" t="s">
         <v>677</v>
-      </c>
-      <c r="B387" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
+        <v>761</v>
+      </c>
+      <c r="B388" t="s">
         <v>762</v>
-      </c>
-      <c r="B388" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>699</v>
+      </c>
+      <c r="B389" t="s">
         <v>700</v>
-      </c>
-      <c r="B389" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>722</v>
+      </c>
+      <c r="B390" t="s">
         <v>723</v>
-      </c>
-      <c r="B390" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
+        <v>743</v>
+      </c>
+      <c r="B391" t="s">
         <v>744</v>
-      </c>
-      <c r="B391" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>662</v>
+      </c>
+      <c r="B392" t="s">
         <v>663</v>
-      </c>
-      <c r="B392" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>718</v>
+      </c>
+      <c r="B393" t="s">
         <v>719</v>
-      </c>
-      <c r="B393" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
+        <v>739</v>
+      </c>
+      <c r="B394" t="s">
         <v>740</v>
-      </c>
-      <c r="B394" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B395" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B396" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
+        <v>787</v>
+      </c>
+      <c r="B397" t="s">
         <v>788</v>
-      </c>
-      <c r="B397" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>758</v>
+      </c>
+      <c r="B398" t="s">
         <v>759</v>
-      </c>
-      <c r="B398" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -10655,34 +10655,34 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
+        <v>442</v>
+      </c>
+      <c r="B400" t="s">
         <v>443</v>
-      </c>
-      <c r="B400" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
+        <v>766</v>
+      </c>
+      <c r="B401" t="s">
         <v>767</v>
-      </c>
-      <c r="B401" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>731</v>
+      </c>
+      <c r="B402" t="s">
         <v>732</v>
-      </c>
-      <c r="B402" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B403" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -10695,58 +10695,58 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
+        <v>752</v>
+      </c>
+      <c r="B405" t="s">
         <v>753</v>
-      </c>
-      <c r="B405" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B406" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
+        <v>697</v>
+      </c>
+      <c r="B407" t="s">
         <v>698</v>
-      </c>
-      <c r="B407" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B408" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
+        <v>716</v>
+      </c>
+      <c r="B409" t="s">
         <v>717</v>
-      </c>
-      <c r="B409" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>423</v>
+      </c>
+      <c r="B410" t="s">
         <v>424</v>
-      </c>
-      <c r="B410" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
+        <v>781</v>
+      </c>
+      <c r="B411" t="s">
         <v>782</v>
-      </c>
-      <c r="B411" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -10759,10 +10759,10 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>650</v>
+      </c>
+      <c r="B413" t="s">
         <v>651</v>
-      </c>
-      <c r="B413" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -10775,191 +10775,191 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
+        <v>695</v>
+      </c>
+      <c r="B415" t="s">
         <v>696</v>
-      </c>
-      <c r="B415" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
+        <v>680</v>
+      </c>
+      <c r="B416" t="s">
         <v>681</v>
-      </c>
-      <c r="B416" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
+        <v>658</v>
+      </c>
+      <c r="B417" t="s">
         <v>659</v>
-      </c>
-      <c r="B417" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>508</v>
+      </c>
+      <c r="B418" t="s">
         <v>509</v>
-      </c>
-      <c r="B418" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>712</v>
+      </c>
+      <c r="B419" t="s">
         <v>713</v>
-      </c>
-      <c r="B419" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>672</v>
+      </c>
+      <c r="B420" t="s">
         <v>673</v>
-      </c>
-      <c r="B420" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B421" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>764</v>
+      </c>
+      <c r="B422" t="s">
         <v>765</v>
-      </c>
-      <c r="B422" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>682</v>
+      </c>
+      <c r="B423" t="s">
         <v>683</v>
-      </c>
-      <c r="B423" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>714</v>
+      </c>
+      <c r="B424" t="s">
         <v>715</v>
-      </c>
-      <c r="B424" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>733</v>
+      </c>
+      <c r="B425" t="s">
         <v>734</v>
-      </c>
-      <c r="B425" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
+        <v>777</v>
+      </c>
+      <c r="B426" t="s">
         <v>778</v>
-      </c>
-      <c r="B426" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
+        <v>783</v>
+      </c>
+      <c r="B427" t="s">
         <v>784</v>
-      </c>
-      <c r="B427" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>797</v>
+      </c>
+      <c r="B428" t="s">
         <v>798</v>
-      </c>
-      <c r="B428" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B429" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>674</v>
+      </c>
+      <c r="B430" t="s">
         <v>675</v>
-      </c>
-      <c r="B430" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
+        <v>693</v>
+      </c>
+      <c r="B431" t="s">
         <v>694</v>
-      </c>
-      <c r="B431" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>768</v>
+      </c>
+      <c r="B432" t="s">
         <v>769</v>
-      </c>
-      <c r="B432" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
+        <v>618</v>
+      </c>
+      <c r="B433" t="s">
         <v>619</v>
-      </c>
-      <c r="B433" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
+        <v>793</v>
+      </c>
+      <c r="B434" t="s">
         <v>794</v>
-      </c>
-      <c r="B434" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>702</v>
+      </c>
+      <c r="B435" t="s">
         <v>703</v>
-      </c>
-      <c r="B435" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>779</v>
+      </c>
+      <c r="B436" t="s">
         <v>780</v>
-      </c>
-      <c r="B436" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B437" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B438" t="s">
         <v>89</v>
@@ -10967,63 +10967,63 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
+        <v>775</v>
+      </c>
+      <c r="B439" t="s">
         <v>776</v>
-      </c>
-      <c r="B439" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
+        <v>789</v>
+      </c>
+      <c r="B440" t="s">
         <v>790</v>
-      </c>
-      <c r="B440" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
+        <v>568</v>
+      </c>
+      <c r="B441" t="s">
         <v>569</v>
-      </c>
-      <c r="B441" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>384</v>
+      </c>
+      <c r="B442" t="s">
         <v>385</v>
-      </c>
-      <c r="B442" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
+        <v>689</v>
+      </c>
+      <c r="B443" t="s">
         <v>690</v>
-      </c>
-      <c r="B443" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
+        <v>756</v>
+      </c>
+      <c r="B444" t="s">
         <v>757</v>
-      </c>
-      <c r="B444" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>233</v>
+      </c>
+      <c r="B445" t="s">
         <v>234</v>
-      </c>
-      <c r="B445" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B446" t="s">
         <v>93</v>
@@ -11031,50 +11031,50 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
+        <v>785</v>
+      </c>
+      <c r="B447" t="s">
         <v>786</v>
-      </c>
-      <c r="B447" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
+        <v>710</v>
+      </c>
+      <c r="B448" t="s">
         <v>711</v>
-      </c>
-      <c r="B448" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>745</v>
+      </c>
+      <c r="B449" t="s">
         <v>746</v>
-      </c>
-      <c r="B449" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
+        <v>720</v>
+      </c>
+      <c r="B450" t="s">
         <v>721</v>
-      </c>
-      <c r="B450" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>691</v>
+      </c>
+      <c r="B451" t="s">
         <v>692</v>
-      </c>
-      <c r="B451" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>737</v>
+      </c>
+      <c r="B452" t="s">
         <v>738</v>
-      </c>
-      <c r="B452" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -11087,34 +11087,34 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
+        <v>678</v>
+      </c>
+      <c r="B454" t="s">
         <v>679</v>
-      </c>
-      <c r="B454" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>548</v>
+      </c>
+      <c r="B455" t="s">
         <v>549</v>
-      </c>
-      <c r="B455" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
+        <v>249</v>
+      </c>
+      <c r="B456" t="s">
         <v>250</v>
-      </c>
-      <c r="B456" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457" t="s">
         <v>707</v>
-      </c>
-      <c r="B457" t="s">
-        <v>708</v>
       </c>
     </row>
   </sheetData>
